--- a/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2968530638220134</v>
+        <v>0.06036993607550725</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7261283341820242</v>
+        <v>-0.4877088389833192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.570441081695676</v>
+        <v>-2.665155901205598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.461172608535577</v>
+        <v>-4.592963803044832</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04352819354439669</v>
+        <v>0.002138056986477522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1051888813694333</v>
+        <v>-0.07109407764489749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3141085926106313</v>
+        <v>-0.3193445645276746</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3150018367952095</v>
+        <v>-0.316676954385514</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.459856864483855</v>
+        <v>4.31756124410266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.135442317224402</v>
+        <v>4.963243195202758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.028051848613303</v>
+        <v>2.712718053595125</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.656383333954042</v>
+        <v>1.665479204915604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.330174846581505</v>
+        <v>2.2508350354749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.168382263634729</v>
+        <v>1.118774241727103</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5397749085975386</v>
+        <v>0.481249598218549</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1597053286490796</v>
+        <v>0.1545461223364542</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.09810432920322</v>
+        <v>-2.036159331080791</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8424807447923269</v>
+        <v>-0.7048817137266549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.07181965965329164</v>
+        <v>-0.1554226906215103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.518351305341758</v>
+        <v>-1.398226418933491</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3173537948794387</v>
+        <v>-0.307888044466173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08895114564575098</v>
+        <v>-0.07700956046693375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01706061714662119</v>
+        <v>-0.04027251311258517</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1014884499184934</v>
+        <v>-0.1035411813470355</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.565009927741926</v>
+        <v>2.384078730943014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.464846224059663</v>
+        <v>4.398556044460465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.404949254356294</v>
+        <v>4.33512119056855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.993532457930051</v>
+        <v>4.101450978435112</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5558431730654915</v>
+        <v>0.5349369140238702</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6655775010012491</v>
+        <v>0.6270389866317803</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.053075829417886</v>
+        <v>1.093379634096942</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4021041292495963</v>
+        <v>0.4030152861999011</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.003935059632302</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2963862176431811</v>
+        <v>0.2963862176431784</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02099039204629639</v>
@@ -849,7 +849,7 @@
         <v>0.6357825557305297</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02473115998063983</v>
+        <v>0.0247311599806396</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.528151288997534</v>
+        <v>-2.592662152798963</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.983527585607306</v>
+        <v>-2.100516182291192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1097786505020045</v>
+        <v>-0.01494585832998796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.023949301191533</v>
+        <v>-2.956086546762787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3558320614911958</v>
+        <v>-0.3654478908904976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2358492710849787</v>
+        <v>-0.2343593266524468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01467839157688793</v>
+        <v>-0.04330775391228983</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2132499453705423</v>
+        <v>-0.2093408189671527</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.71826350835464</v>
+        <v>2.475934456434351</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.980296179358123</v>
+        <v>3.835872802568018</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.306410933078079</v>
+        <v>4.014880207964882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.263987711338936</v>
+        <v>3.849004048623268</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5907190939844297</v>
+        <v>0.5670558077438419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6964878634708367</v>
+        <v>0.6607414443237706</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.865712255157335</v>
+        <v>1.767526819904795</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3203676739449557</v>
+        <v>0.3797519648865769</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.02023313038031485</v>
+        <v>0.09322641566370067</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.812766492271918</v>
+        <v>-0.4561695279977398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.685924454717656</v>
+        <v>-1.845108677489845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8977313480529473</v>
+        <v>-0.7664541884986106</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.003483206305903356</v>
+        <v>0.00985507322904766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09487872289931051</v>
+        <v>-0.05560491352208719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2053055338367637</v>
+        <v>-0.218887115255598</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09818199216967953</v>
+        <v>-0.08345965086468095</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.450628615306363</v>
+        <v>4.441328768272387</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.456384684982542</v>
+        <v>4.699783516307352</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.066179352933603</v>
+        <v>3.163790913602699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.470724043976952</v>
+        <v>3.772165141362569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.033861056723489</v>
+        <v>1.022035680024941</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7188099302113616</v>
+        <v>0.7469800628400407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5221451855992157</v>
+        <v>0.5549398320639859</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5559673213297851</v>
+        <v>0.574973873071052</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.350781388306628</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5770428705190456</v>
+        <v>0.5770428705190483</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2536068235289765</v>
@@ -1049,7 +1049,7 @@
         <v>0.2432449208828328</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.05313227085584698</v>
+        <v>0.05313227085584725</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2452842964671383</v>
+        <v>0.1278361607659346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4162275340094144</v>
+        <v>0.3478801954477203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2135802709215586</v>
+        <v>0.2606029501800697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6998997351510647</v>
+        <v>-0.8276765229555703</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0459820838714304</v>
+        <v>0.006619817292416587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04074360947408762</v>
+        <v>0.04417034066355812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03032504030621002</v>
+        <v>0.04495292756807556</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06111612518338385</v>
+        <v>-0.07260153199895068</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.462723225475883</v>
+        <v>2.364663929729412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.12178323716568</v>
+        <v>3.085307461858394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.597203051472694</v>
+        <v>2.643563862729976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.894607058781073</v>
+        <v>2.035631393041496</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5602440546645797</v>
+        <v>0.5251819407486161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4585139298409908</v>
+        <v>0.4730331282402401</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5095752603829646</v>
+        <v>0.536566272794891</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1878073398636191</v>
+        <v>0.2018657476024575</v>
       </c>
     </row>
     <row r="19">
